--- a/www/data/GenderEqualityYearsofEducation_Compact.xlsx
+++ b/www/data/GenderEqualityYearsofEducation_Compact.xlsx
@@ -6,14 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" r:id="rId3" sheetId="1"/>
-    <sheet name="Metadata" r:id="rId4" sheetId="2"/>
+    <sheet name="Data Clio Infra Format" r:id="rId3" sheetId="1"/>
+    <sheet name="Data Long Format" r:id="rId4" sheetId="2"/>
+    <sheet name="Metadata" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="557">
   <si>
     <t>ccode</t>
   </si>
@@ -1641,6 +1642,15 @@
     <t>United States</t>
   </si>
   <si>
+    <t>country.name</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -1671,10 +1681,10 @@
     <t>https://www.clio-infra.eu/citations/DOI-10622_OTHFUK.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_OTHFUK.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_OTHFUK.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_OTHFUK.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_OTHFUK.bib</t>
   </si>
 </sst>
 </file>
@@ -16152,50 +16162,2037 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>542</v>
       </c>
+      <c r="C1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>524</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>525</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>526</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>527</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>528</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>529</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>530</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>531</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>528.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>532</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>616.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>533</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>535</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>724.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>536</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>537</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>764.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>538</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>792.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>539</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>540</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>541</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>518</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>519</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>520</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>521</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>522</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>523</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>524</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>525</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>526</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>527</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>528</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>529</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>530</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>531</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>528.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>532</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>616.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>533</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>535</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>724.0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>536</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>537</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>764.0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>538</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>792.0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>539</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>540</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>541</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>518</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>519</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>520</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>521</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>522</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>523</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>524</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>525</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>526</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>527</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>528</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>529</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>530</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>531</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>528.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>532</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>616.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>533</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>535</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>724.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>536</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>537</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>764.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>538</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>792.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>539</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>540</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>541</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>518</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>519</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>520</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>521</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>522</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>523</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>524</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>525</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>526</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>527</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>528</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>529</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>530</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>531</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>528.0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>532</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>616.0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>533</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>535</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>724.0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>536</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>537</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>764.0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>538</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>792.0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>539</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>540</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>541</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>518</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>519</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>520</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>521</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>522</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>523</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>524</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>525</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>526</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>527</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>528</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>529</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>530</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>531</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>528.0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>532</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>616.0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>533</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>643.0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>534</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>535</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>724.0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>536</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>537</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>764.0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>538</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>792.0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>539</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>540</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>541</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>518</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>519</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>520</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>521</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>522</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>523</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>524</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>525</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>526</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>527</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>528</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>529</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>530</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>531</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>528.0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>532</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>616.0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>533</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>643.0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>534</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>535</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>724.0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>536</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>537</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>764.0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>538</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>792.0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>539</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>540</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>541</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>545</v>
+      </c>
       <c r="B1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B2" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B3" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B4" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B5" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B6" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>

--- a/www/data/GenderEqualityYearsofEducation_Compact.xlsx
+++ b/www/data/GenderEqualityYearsofEducation_Compact.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="592">
   <si>
     <t>ccode</t>
   </si>
@@ -1570,6 +1570,111 @@
     <t>2015</t>
   </si>
   <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>2032</t>
+  </si>
+  <si>
+    <t>2033</t>
+  </si>
+  <si>
+    <t>2034</t>
+  </si>
+  <si>
+    <t>2035</t>
+  </si>
+  <si>
+    <t>2036</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>2038</t>
+  </si>
+  <si>
+    <t>2039</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>2041</t>
+  </si>
+  <si>
+    <t>2042</t>
+  </si>
+  <si>
+    <t>2043</t>
+  </si>
+  <si>
+    <t>2044</t>
+  </si>
+  <si>
+    <t>2045</t>
+  </si>
+  <si>
+    <t>2046</t>
+  </si>
+  <si>
+    <t>2047</t>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>2049</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
     <t>Argentina</t>
   </si>
   <si>
@@ -1675,7 +1780,7 @@
     <t>https://www.clio-infra.eu/data/GenderEqualityYearsofEducation_Compact.xlsx</t>
   </si>
   <si>
-    <t>Carmichael, Sarah, Selin Dilli and Auke Rijpma (2015). Gender Equality Years of Education. http://hdl.handle.net/10622/OTHFUK, accessed via the Clio Infra website.</t>
+    <t>Carmichael, Sarah, Selin Dilli, and Auke Rijpma (2015). Gender Equality Years of Education. http://hdl.handle.net/10622/OTHFUK, accessed via the Clio Infra website.</t>
   </si>
   <si>
     <t>https://www.clio-infra.eu/citations/DOI-10622_OTHFUK.xml</t>
@@ -3290,13 +3395,118 @@
       <c r="SX1" t="s">
         <v>517</v>
       </c>
+      <c r="SY1" t="s">
+        <v>518</v>
+      </c>
+      <c r="SZ1" t="s">
+        <v>519</v>
+      </c>
+      <c r="TA1" t="s">
+        <v>520</v>
+      </c>
+      <c r="TB1" t="s">
+        <v>521</v>
+      </c>
+      <c r="TC1" t="s">
+        <v>522</v>
+      </c>
+      <c r="TD1" t="s">
+        <v>523</v>
+      </c>
+      <c r="TE1" t="s">
+        <v>524</v>
+      </c>
+      <c r="TF1" t="s">
+        <v>525</v>
+      </c>
+      <c r="TG1" t="s">
+        <v>526</v>
+      </c>
+      <c r="TH1" t="s">
+        <v>527</v>
+      </c>
+      <c r="TI1" t="s">
+        <v>528</v>
+      </c>
+      <c r="TJ1" t="s">
+        <v>529</v>
+      </c>
+      <c r="TK1" t="s">
+        <v>530</v>
+      </c>
+      <c r="TL1" t="s">
+        <v>531</v>
+      </c>
+      <c r="TM1" t="s">
+        <v>532</v>
+      </c>
+      <c r="TN1" t="s">
+        <v>533</v>
+      </c>
+      <c r="TO1" t="s">
+        <v>534</v>
+      </c>
+      <c r="TP1" t="s">
+        <v>535</v>
+      </c>
+      <c r="TQ1" t="s">
+        <v>536</v>
+      </c>
+      <c r="TR1" t="s">
+        <v>537</v>
+      </c>
+      <c r="TS1" t="s">
+        <v>538</v>
+      </c>
+      <c r="TT1" t="s">
+        <v>539</v>
+      </c>
+      <c r="TU1" t="s">
+        <v>540</v>
+      </c>
+      <c r="TV1" t="s">
+        <v>541</v>
+      </c>
+      <c r="TW1" t="s">
+        <v>542</v>
+      </c>
+      <c r="TX1" t="s">
+        <v>543</v>
+      </c>
+      <c r="TY1" t="s">
+        <v>544</v>
+      </c>
+      <c r="TZ1" t="s">
+        <v>545</v>
+      </c>
+      <c r="UA1" t="s">
+        <v>546</v>
+      </c>
+      <c r="UB1" t="s">
+        <v>547</v>
+      </c>
+      <c r="UC1" t="s">
+        <v>548</v>
+      </c>
+      <c r="UD1" t="s">
+        <v>549</v>
+      </c>
+      <c r="UE1" t="s">
+        <v>550</v>
+      </c>
+      <c r="UF1" t="s">
+        <v>551</v>
+      </c>
+      <c r="UG1" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>32.0</v>
       </c>
       <c r="B2" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -3826,13 +4036,48 @@
       <c r="SV2"/>
       <c r="SW2"/>
       <c r="SX2"/>
+      <c r="SY2"/>
+      <c r="SZ2"/>
+      <c r="TA2"/>
+      <c r="TB2"/>
+      <c r="TC2"/>
+      <c r="TD2"/>
+      <c r="TE2"/>
+      <c r="TF2"/>
+      <c r="TG2"/>
+      <c r="TH2"/>
+      <c r="TI2"/>
+      <c r="TJ2"/>
+      <c r="TK2"/>
+      <c r="TL2"/>
+      <c r="TM2"/>
+      <c r="TN2"/>
+      <c r="TO2"/>
+      <c r="TP2"/>
+      <c r="TQ2"/>
+      <c r="TR2"/>
+      <c r="TS2"/>
+      <c r="TT2"/>
+      <c r="TU2"/>
+      <c r="TV2"/>
+      <c r="TW2"/>
+      <c r="TX2"/>
+      <c r="TY2"/>
+      <c r="TZ2"/>
+      <c r="UA2"/>
+      <c r="UB2"/>
+      <c r="UC2"/>
+      <c r="UD2"/>
+      <c r="UE2"/>
+      <c r="UF2"/>
+      <c r="UG2"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36.0</v>
       </c>
       <c r="B3" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -4362,13 +4607,48 @@
       <c r="SV3"/>
       <c r="SW3"/>
       <c r="SX3"/>
+      <c r="SY3"/>
+      <c r="SZ3"/>
+      <c r="TA3"/>
+      <c r="TB3"/>
+      <c r="TC3"/>
+      <c r="TD3"/>
+      <c r="TE3"/>
+      <c r="TF3"/>
+      <c r="TG3"/>
+      <c r="TH3"/>
+      <c r="TI3"/>
+      <c r="TJ3"/>
+      <c r="TK3"/>
+      <c r="TL3"/>
+      <c r="TM3"/>
+      <c r="TN3"/>
+      <c r="TO3"/>
+      <c r="TP3"/>
+      <c r="TQ3"/>
+      <c r="TR3"/>
+      <c r="TS3"/>
+      <c r="TT3"/>
+      <c r="TU3"/>
+      <c r="TV3"/>
+      <c r="TW3"/>
+      <c r="TX3"/>
+      <c r="TY3"/>
+      <c r="TZ3"/>
+      <c r="UA3"/>
+      <c r="UB3"/>
+      <c r="UC3"/>
+      <c r="UD3"/>
+      <c r="UE3"/>
+      <c r="UF3"/>
+      <c r="UG3"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>76.0</v>
       </c>
       <c r="B4" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -4898,13 +5178,48 @@
       <c r="SV4"/>
       <c r="SW4"/>
       <c r="SX4"/>
+      <c r="SY4"/>
+      <c r="SZ4"/>
+      <c r="TA4"/>
+      <c r="TB4"/>
+      <c r="TC4"/>
+      <c r="TD4"/>
+      <c r="TE4"/>
+      <c r="TF4"/>
+      <c r="TG4"/>
+      <c r="TH4"/>
+      <c r="TI4"/>
+      <c r="TJ4"/>
+      <c r="TK4"/>
+      <c r="TL4"/>
+      <c r="TM4"/>
+      <c r="TN4"/>
+      <c r="TO4"/>
+      <c r="TP4"/>
+      <c r="TQ4"/>
+      <c r="TR4"/>
+      <c r="TS4"/>
+      <c r="TT4"/>
+      <c r="TU4"/>
+      <c r="TV4"/>
+      <c r="TW4"/>
+      <c r="TX4"/>
+      <c r="TY4"/>
+      <c r="TZ4"/>
+      <c r="UA4"/>
+      <c r="UB4"/>
+      <c r="UC4"/>
+      <c r="UD4"/>
+      <c r="UE4"/>
+      <c r="UF4"/>
+      <c r="UG4"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>124.0</v>
       </c>
       <c r="B5" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -5434,13 +5749,48 @@
       <c r="SV5"/>
       <c r="SW5"/>
       <c r="SX5"/>
+      <c r="SY5"/>
+      <c r="SZ5"/>
+      <c r="TA5"/>
+      <c r="TB5"/>
+      <c r="TC5"/>
+      <c r="TD5"/>
+      <c r="TE5"/>
+      <c r="TF5"/>
+      <c r="TG5"/>
+      <c r="TH5"/>
+      <c r="TI5"/>
+      <c r="TJ5"/>
+      <c r="TK5"/>
+      <c r="TL5"/>
+      <c r="TM5"/>
+      <c r="TN5"/>
+      <c r="TO5"/>
+      <c r="TP5"/>
+      <c r="TQ5"/>
+      <c r="TR5"/>
+      <c r="TS5"/>
+      <c r="TT5"/>
+      <c r="TU5"/>
+      <c r="TV5"/>
+      <c r="TW5"/>
+      <c r="TX5"/>
+      <c r="TY5"/>
+      <c r="TZ5"/>
+      <c r="UA5"/>
+      <c r="UB5"/>
+      <c r="UC5"/>
+      <c r="UD5"/>
+      <c r="UE5"/>
+      <c r="UF5"/>
+      <c r="UG5"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>156.0</v>
       </c>
       <c r="B6" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -5970,13 +6320,48 @@
       <c r="SV6"/>
       <c r="SW6"/>
       <c r="SX6"/>
+      <c r="SY6"/>
+      <c r="SZ6"/>
+      <c r="TA6"/>
+      <c r="TB6"/>
+      <c r="TC6"/>
+      <c r="TD6"/>
+      <c r="TE6"/>
+      <c r="TF6"/>
+      <c r="TG6"/>
+      <c r="TH6"/>
+      <c r="TI6"/>
+      <c r="TJ6"/>
+      <c r="TK6"/>
+      <c r="TL6"/>
+      <c r="TM6"/>
+      <c r="TN6"/>
+      <c r="TO6"/>
+      <c r="TP6"/>
+      <c r="TQ6"/>
+      <c r="TR6"/>
+      <c r="TS6"/>
+      <c r="TT6"/>
+      <c r="TU6"/>
+      <c r="TV6"/>
+      <c r="TW6"/>
+      <c r="TX6"/>
+      <c r="TY6"/>
+      <c r="TZ6"/>
+      <c r="UA6"/>
+      <c r="UB6"/>
+      <c r="UC6"/>
+      <c r="UD6"/>
+      <c r="UE6"/>
+      <c r="UF6"/>
+      <c r="UG6"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>818.0</v>
       </c>
       <c r="B7" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -6506,13 +6891,48 @@
       <c r="SV7"/>
       <c r="SW7"/>
       <c r="SX7"/>
+      <c r="SY7"/>
+      <c r="SZ7"/>
+      <c r="TA7"/>
+      <c r="TB7"/>
+      <c r="TC7"/>
+      <c r="TD7"/>
+      <c r="TE7"/>
+      <c r="TF7"/>
+      <c r="TG7"/>
+      <c r="TH7"/>
+      <c r="TI7"/>
+      <c r="TJ7"/>
+      <c r="TK7"/>
+      <c r="TL7"/>
+      <c r="TM7"/>
+      <c r="TN7"/>
+      <c r="TO7"/>
+      <c r="TP7"/>
+      <c r="TQ7"/>
+      <c r="TR7"/>
+      <c r="TS7"/>
+      <c r="TT7"/>
+      <c r="TU7"/>
+      <c r="TV7"/>
+      <c r="TW7"/>
+      <c r="TX7"/>
+      <c r="TY7"/>
+      <c r="TZ7"/>
+      <c r="UA7"/>
+      <c r="UB7"/>
+      <c r="UC7"/>
+      <c r="UD7"/>
+      <c r="UE7"/>
+      <c r="UF7"/>
+      <c r="UG7"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>250.0</v>
       </c>
       <c r="B8" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -7042,13 +7462,48 @@
       <c r="SV8"/>
       <c r="SW8"/>
       <c r="SX8"/>
+      <c r="SY8"/>
+      <c r="SZ8"/>
+      <c r="TA8"/>
+      <c r="TB8"/>
+      <c r="TC8"/>
+      <c r="TD8"/>
+      <c r="TE8"/>
+      <c r="TF8"/>
+      <c r="TG8"/>
+      <c r="TH8"/>
+      <c r="TI8"/>
+      <c r="TJ8"/>
+      <c r="TK8"/>
+      <c r="TL8"/>
+      <c r="TM8"/>
+      <c r="TN8"/>
+      <c r="TO8"/>
+      <c r="TP8"/>
+      <c r="TQ8"/>
+      <c r="TR8"/>
+      <c r="TS8"/>
+      <c r="TT8"/>
+      <c r="TU8"/>
+      <c r="TV8"/>
+      <c r="TW8"/>
+      <c r="TX8"/>
+      <c r="TY8"/>
+      <c r="TZ8"/>
+      <c r="UA8"/>
+      <c r="UB8"/>
+      <c r="UC8"/>
+      <c r="UD8"/>
+      <c r="UE8"/>
+      <c r="UF8"/>
+      <c r="UG8"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>276.0</v>
       </c>
       <c r="B9" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -7578,13 +8033,48 @@
       <c r="SV9"/>
       <c r="SW9"/>
       <c r="SX9"/>
+      <c r="SY9"/>
+      <c r="SZ9"/>
+      <c r="TA9"/>
+      <c r="TB9"/>
+      <c r="TC9"/>
+      <c r="TD9"/>
+      <c r="TE9"/>
+      <c r="TF9"/>
+      <c r="TG9"/>
+      <c r="TH9"/>
+      <c r="TI9"/>
+      <c r="TJ9"/>
+      <c r="TK9"/>
+      <c r="TL9"/>
+      <c r="TM9"/>
+      <c r="TN9"/>
+      <c r="TO9"/>
+      <c r="TP9"/>
+      <c r="TQ9"/>
+      <c r="TR9"/>
+      <c r="TS9"/>
+      <c r="TT9"/>
+      <c r="TU9"/>
+      <c r="TV9"/>
+      <c r="TW9"/>
+      <c r="TX9"/>
+      <c r="TY9"/>
+      <c r="TZ9"/>
+      <c r="UA9"/>
+      <c r="UB9"/>
+      <c r="UC9"/>
+      <c r="UD9"/>
+      <c r="UE9"/>
+      <c r="UF9"/>
+      <c r="UG9"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>356.0</v>
       </c>
       <c r="B10" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -8114,13 +8604,48 @@
       <c r="SV10"/>
       <c r="SW10"/>
       <c r="SX10"/>
+      <c r="SY10"/>
+      <c r="SZ10"/>
+      <c r="TA10"/>
+      <c r="TB10"/>
+      <c r="TC10"/>
+      <c r="TD10"/>
+      <c r="TE10"/>
+      <c r="TF10"/>
+      <c r="TG10"/>
+      <c r="TH10"/>
+      <c r="TI10"/>
+      <c r="TJ10"/>
+      <c r="TK10"/>
+      <c r="TL10"/>
+      <c r="TM10"/>
+      <c r="TN10"/>
+      <c r="TO10"/>
+      <c r="TP10"/>
+      <c r="TQ10"/>
+      <c r="TR10"/>
+      <c r="TS10"/>
+      <c r="TT10"/>
+      <c r="TU10"/>
+      <c r="TV10"/>
+      <c r="TW10"/>
+      <c r="TX10"/>
+      <c r="TY10"/>
+      <c r="TZ10"/>
+      <c r="UA10"/>
+      <c r="UB10"/>
+      <c r="UC10"/>
+      <c r="UD10"/>
+      <c r="UE10"/>
+      <c r="UF10"/>
+      <c r="UG10"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>360.0</v>
       </c>
       <c r="B11" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -8650,13 +9175,48 @@
       <c r="SV11"/>
       <c r="SW11"/>
       <c r="SX11"/>
+      <c r="SY11"/>
+      <c r="SZ11"/>
+      <c r="TA11"/>
+      <c r="TB11"/>
+      <c r="TC11"/>
+      <c r="TD11"/>
+      <c r="TE11"/>
+      <c r="TF11"/>
+      <c r="TG11"/>
+      <c r="TH11"/>
+      <c r="TI11"/>
+      <c r="TJ11"/>
+      <c r="TK11"/>
+      <c r="TL11"/>
+      <c r="TM11"/>
+      <c r="TN11"/>
+      <c r="TO11"/>
+      <c r="TP11"/>
+      <c r="TQ11"/>
+      <c r="TR11"/>
+      <c r="TS11"/>
+      <c r="TT11"/>
+      <c r="TU11"/>
+      <c r="TV11"/>
+      <c r="TW11"/>
+      <c r="TX11"/>
+      <c r="TY11"/>
+      <c r="TZ11"/>
+      <c r="UA11"/>
+      <c r="UB11"/>
+      <c r="UC11"/>
+      <c r="UD11"/>
+      <c r="UE11"/>
+      <c r="UF11"/>
+      <c r="UG11"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>380.0</v>
       </c>
       <c r="B12" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -9186,13 +9746,48 @@
       <c r="SV12"/>
       <c r="SW12"/>
       <c r="SX12"/>
+      <c r="SY12"/>
+      <c r="SZ12"/>
+      <c r="TA12"/>
+      <c r="TB12"/>
+      <c r="TC12"/>
+      <c r="TD12"/>
+      <c r="TE12"/>
+      <c r="TF12"/>
+      <c r="TG12"/>
+      <c r="TH12"/>
+      <c r="TI12"/>
+      <c r="TJ12"/>
+      <c r="TK12"/>
+      <c r="TL12"/>
+      <c r="TM12"/>
+      <c r="TN12"/>
+      <c r="TO12"/>
+      <c r="TP12"/>
+      <c r="TQ12"/>
+      <c r="TR12"/>
+      <c r="TS12"/>
+      <c r="TT12"/>
+      <c r="TU12"/>
+      <c r="TV12"/>
+      <c r="TW12"/>
+      <c r="TX12"/>
+      <c r="TY12"/>
+      <c r="TZ12"/>
+      <c r="UA12"/>
+      <c r="UB12"/>
+      <c r="UC12"/>
+      <c r="UD12"/>
+      <c r="UE12"/>
+      <c r="UF12"/>
+      <c r="UG12"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>392.0</v>
       </c>
       <c r="B13" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -9722,13 +10317,48 @@
       <c r="SV13"/>
       <c r="SW13"/>
       <c r="SX13"/>
+      <c r="SY13"/>
+      <c r="SZ13"/>
+      <c r="TA13"/>
+      <c r="TB13"/>
+      <c r="TC13"/>
+      <c r="TD13"/>
+      <c r="TE13"/>
+      <c r="TF13"/>
+      <c r="TG13"/>
+      <c r="TH13"/>
+      <c r="TI13"/>
+      <c r="TJ13"/>
+      <c r="TK13"/>
+      <c r="TL13"/>
+      <c r="TM13"/>
+      <c r="TN13"/>
+      <c r="TO13"/>
+      <c r="TP13"/>
+      <c r="TQ13"/>
+      <c r="TR13"/>
+      <c r="TS13"/>
+      <c r="TT13"/>
+      <c r="TU13"/>
+      <c r="TV13"/>
+      <c r="TW13"/>
+      <c r="TX13"/>
+      <c r="TY13"/>
+      <c r="TZ13"/>
+      <c r="UA13"/>
+      <c r="UB13"/>
+      <c r="UC13"/>
+      <c r="UD13"/>
+      <c r="UE13"/>
+      <c r="UF13"/>
+      <c r="UG13"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>404.0</v>
       </c>
       <c r="B14" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -10258,13 +10888,48 @@
       <c r="SV14"/>
       <c r="SW14"/>
       <c r="SX14"/>
+      <c r="SY14"/>
+      <c r="SZ14"/>
+      <c r="TA14"/>
+      <c r="TB14"/>
+      <c r="TC14"/>
+      <c r="TD14"/>
+      <c r="TE14"/>
+      <c r="TF14"/>
+      <c r="TG14"/>
+      <c r="TH14"/>
+      <c r="TI14"/>
+      <c r="TJ14"/>
+      <c r="TK14"/>
+      <c r="TL14"/>
+      <c r="TM14"/>
+      <c r="TN14"/>
+      <c r="TO14"/>
+      <c r="TP14"/>
+      <c r="TQ14"/>
+      <c r="TR14"/>
+      <c r="TS14"/>
+      <c r="TT14"/>
+      <c r="TU14"/>
+      <c r="TV14"/>
+      <c r="TW14"/>
+      <c r="TX14"/>
+      <c r="TY14"/>
+      <c r="TZ14"/>
+      <c r="UA14"/>
+      <c r="UB14"/>
+      <c r="UC14"/>
+      <c r="UD14"/>
+      <c r="UE14"/>
+      <c r="UF14"/>
+      <c r="UG14"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>484.0</v>
       </c>
       <c r="B15" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -10794,13 +11459,48 @@
       <c r="SV15"/>
       <c r="SW15"/>
       <c r="SX15"/>
+      <c r="SY15"/>
+      <c r="SZ15"/>
+      <c r="TA15"/>
+      <c r="TB15"/>
+      <c r="TC15"/>
+      <c r="TD15"/>
+      <c r="TE15"/>
+      <c r="TF15"/>
+      <c r="TG15"/>
+      <c r="TH15"/>
+      <c r="TI15"/>
+      <c r="TJ15"/>
+      <c r="TK15"/>
+      <c r="TL15"/>
+      <c r="TM15"/>
+      <c r="TN15"/>
+      <c r="TO15"/>
+      <c r="TP15"/>
+      <c r="TQ15"/>
+      <c r="TR15"/>
+      <c r="TS15"/>
+      <c r="TT15"/>
+      <c r="TU15"/>
+      <c r="TV15"/>
+      <c r="TW15"/>
+      <c r="TX15"/>
+      <c r="TY15"/>
+      <c r="TZ15"/>
+      <c r="UA15"/>
+      <c r="UB15"/>
+      <c r="UC15"/>
+      <c r="UD15"/>
+      <c r="UE15"/>
+      <c r="UF15"/>
+      <c r="UG15"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>528.0</v>
       </c>
       <c r="B16" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -11330,13 +12030,48 @@
       <c r="SV16"/>
       <c r="SW16"/>
       <c r="SX16"/>
+      <c r="SY16"/>
+      <c r="SZ16"/>
+      <c r="TA16"/>
+      <c r="TB16"/>
+      <c r="TC16"/>
+      <c r="TD16"/>
+      <c r="TE16"/>
+      <c r="TF16"/>
+      <c r="TG16"/>
+      <c r="TH16"/>
+      <c r="TI16"/>
+      <c r="TJ16"/>
+      <c r="TK16"/>
+      <c r="TL16"/>
+      <c r="TM16"/>
+      <c r="TN16"/>
+      <c r="TO16"/>
+      <c r="TP16"/>
+      <c r="TQ16"/>
+      <c r="TR16"/>
+      <c r="TS16"/>
+      <c r="TT16"/>
+      <c r="TU16"/>
+      <c r="TV16"/>
+      <c r="TW16"/>
+      <c r="TX16"/>
+      <c r="TY16"/>
+      <c r="TZ16"/>
+      <c r="UA16"/>
+      <c r="UB16"/>
+      <c r="UC16"/>
+      <c r="UD16"/>
+      <c r="UE16"/>
+      <c r="UF16"/>
+      <c r="UG16"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>616.0</v>
       </c>
       <c r="B17" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -11866,13 +12601,48 @@
       <c r="SV17"/>
       <c r="SW17"/>
       <c r="SX17"/>
+      <c r="SY17"/>
+      <c r="SZ17"/>
+      <c r="TA17"/>
+      <c r="TB17"/>
+      <c r="TC17"/>
+      <c r="TD17"/>
+      <c r="TE17"/>
+      <c r="TF17"/>
+      <c r="TG17"/>
+      <c r="TH17"/>
+      <c r="TI17"/>
+      <c r="TJ17"/>
+      <c r="TK17"/>
+      <c r="TL17"/>
+      <c r="TM17"/>
+      <c r="TN17"/>
+      <c r="TO17"/>
+      <c r="TP17"/>
+      <c r="TQ17"/>
+      <c r="TR17"/>
+      <c r="TS17"/>
+      <c r="TT17"/>
+      <c r="TU17"/>
+      <c r="TV17"/>
+      <c r="TW17"/>
+      <c r="TX17"/>
+      <c r="TY17"/>
+      <c r="TZ17"/>
+      <c r="UA17"/>
+      <c r="UB17"/>
+      <c r="UC17"/>
+      <c r="UD17"/>
+      <c r="UE17"/>
+      <c r="UF17"/>
+      <c r="UG17"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>643.0</v>
       </c>
       <c r="B18" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -12394,13 +13164,48 @@
       <c r="SV18"/>
       <c r="SW18"/>
       <c r="SX18"/>
+      <c r="SY18"/>
+      <c r="SZ18"/>
+      <c r="TA18"/>
+      <c r="TB18"/>
+      <c r="TC18"/>
+      <c r="TD18"/>
+      <c r="TE18"/>
+      <c r="TF18"/>
+      <c r="TG18"/>
+      <c r="TH18"/>
+      <c r="TI18"/>
+      <c r="TJ18"/>
+      <c r="TK18"/>
+      <c r="TL18"/>
+      <c r="TM18"/>
+      <c r="TN18"/>
+      <c r="TO18"/>
+      <c r="TP18"/>
+      <c r="TQ18"/>
+      <c r="TR18"/>
+      <c r="TS18"/>
+      <c r="TT18"/>
+      <c r="TU18"/>
+      <c r="TV18"/>
+      <c r="TW18"/>
+      <c r="TX18"/>
+      <c r="TY18"/>
+      <c r="TZ18"/>
+      <c r="UA18"/>
+      <c r="UB18"/>
+      <c r="UC18"/>
+      <c r="UD18"/>
+      <c r="UE18"/>
+      <c r="UF18"/>
+      <c r="UG18"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>710.0</v>
       </c>
       <c r="B19" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -12930,13 +13735,48 @@
       <c r="SV19"/>
       <c r="SW19"/>
       <c r="SX19"/>
+      <c r="SY19"/>
+      <c r="SZ19"/>
+      <c r="TA19"/>
+      <c r="TB19"/>
+      <c r="TC19"/>
+      <c r="TD19"/>
+      <c r="TE19"/>
+      <c r="TF19"/>
+      <c r="TG19"/>
+      <c r="TH19"/>
+      <c r="TI19"/>
+      <c r="TJ19"/>
+      <c r="TK19"/>
+      <c r="TL19"/>
+      <c r="TM19"/>
+      <c r="TN19"/>
+      <c r="TO19"/>
+      <c r="TP19"/>
+      <c r="TQ19"/>
+      <c r="TR19"/>
+      <c r="TS19"/>
+      <c r="TT19"/>
+      <c r="TU19"/>
+      <c r="TV19"/>
+      <c r="TW19"/>
+      <c r="TX19"/>
+      <c r="TY19"/>
+      <c r="TZ19"/>
+      <c r="UA19"/>
+      <c r="UB19"/>
+      <c r="UC19"/>
+      <c r="UD19"/>
+      <c r="UE19"/>
+      <c r="UF19"/>
+      <c r="UG19"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>724.0</v>
       </c>
       <c r="B20" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -13466,13 +14306,48 @@
       <c r="SV20"/>
       <c r="SW20"/>
       <c r="SX20"/>
+      <c r="SY20"/>
+      <c r="SZ20"/>
+      <c r="TA20"/>
+      <c r="TB20"/>
+      <c r="TC20"/>
+      <c r="TD20"/>
+      <c r="TE20"/>
+      <c r="TF20"/>
+      <c r="TG20"/>
+      <c r="TH20"/>
+      <c r="TI20"/>
+      <c r="TJ20"/>
+      <c r="TK20"/>
+      <c r="TL20"/>
+      <c r="TM20"/>
+      <c r="TN20"/>
+      <c r="TO20"/>
+      <c r="TP20"/>
+      <c r="TQ20"/>
+      <c r="TR20"/>
+      <c r="TS20"/>
+      <c r="TT20"/>
+      <c r="TU20"/>
+      <c r="TV20"/>
+      <c r="TW20"/>
+      <c r="TX20"/>
+      <c r="TY20"/>
+      <c r="TZ20"/>
+      <c r="UA20"/>
+      <c r="UB20"/>
+      <c r="UC20"/>
+      <c r="UD20"/>
+      <c r="UE20"/>
+      <c r="UF20"/>
+      <c r="UG20"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>752.0</v>
       </c>
       <c r="B21" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -14002,13 +14877,48 @@
       <c r="SV21"/>
       <c r="SW21"/>
       <c r="SX21"/>
+      <c r="SY21"/>
+      <c r="SZ21"/>
+      <c r="TA21"/>
+      <c r="TB21"/>
+      <c r="TC21"/>
+      <c r="TD21"/>
+      <c r="TE21"/>
+      <c r="TF21"/>
+      <c r="TG21"/>
+      <c r="TH21"/>
+      <c r="TI21"/>
+      <c r="TJ21"/>
+      <c r="TK21"/>
+      <c r="TL21"/>
+      <c r="TM21"/>
+      <c r="TN21"/>
+      <c r="TO21"/>
+      <c r="TP21"/>
+      <c r="TQ21"/>
+      <c r="TR21"/>
+      <c r="TS21"/>
+      <c r="TT21"/>
+      <c r="TU21"/>
+      <c r="TV21"/>
+      <c r="TW21"/>
+      <c r="TX21"/>
+      <c r="TY21"/>
+      <c r="TZ21"/>
+      <c r="UA21"/>
+      <c r="UB21"/>
+      <c r="UC21"/>
+      <c r="UD21"/>
+      <c r="UE21"/>
+      <c r="UF21"/>
+      <c r="UG21"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>764.0</v>
       </c>
       <c r="B22" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -14538,13 +15448,48 @@
       <c r="SV22"/>
       <c r="SW22"/>
       <c r="SX22"/>
+      <c r="SY22"/>
+      <c r="SZ22"/>
+      <c r="TA22"/>
+      <c r="TB22"/>
+      <c r="TC22"/>
+      <c r="TD22"/>
+      <c r="TE22"/>
+      <c r="TF22"/>
+      <c r="TG22"/>
+      <c r="TH22"/>
+      <c r="TI22"/>
+      <c r="TJ22"/>
+      <c r="TK22"/>
+      <c r="TL22"/>
+      <c r="TM22"/>
+      <c r="TN22"/>
+      <c r="TO22"/>
+      <c r="TP22"/>
+      <c r="TQ22"/>
+      <c r="TR22"/>
+      <c r="TS22"/>
+      <c r="TT22"/>
+      <c r="TU22"/>
+      <c r="TV22"/>
+      <c r="TW22"/>
+      <c r="TX22"/>
+      <c r="TY22"/>
+      <c r="TZ22"/>
+      <c r="UA22"/>
+      <c r="UB22"/>
+      <c r="UC22"/>
+      <c r="UD22"/>
+      <c r="UE22"/>
+      <c r="UF22"/>
+      <c r="UG22"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>792.0</v>
       </c>
       <c r="B23" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -15074,13 +16019,48 @@
       <c r="SV23"/>
       <c r="SW23"/>
       <c r="SX23"/>
+      <c r="SY23"/>
+      <c r="SZ23"/>
+      <c r="TA23"/>
+      <c r="TB23"/>
+      <c r="TC23"/>
+      <c r="TD23"/>
+      <c r="TE23"/>
+      <c r="TF23"/>
+      <c r="TG23"/>
+      <c r="TH23"/>
+      <c r="TI23"/>
+      <c r="TJ23"/>
+      <c r="TK23"/>
+      <c r="TL23"/>
+      <c r="TM23"/>
+      <c r="TN23"/>
+      <c r="TO23"/>
+      <c r="TP23"/>
+      <c r="TQ23"/>
+      <c r="TR23"/>
+      <c r="TS23"/>
+      <c r="TT23"/>
+      <c r="TU23"/>
+      <c r="TV23"/>
+      <c r="TW23"/>
+      <c r="TX23"/>
+      <c r="TY23"/>
+      <c r="TZ23"/>
+      <c r="UA23"/>
+      <c r="UB23"/>
+      <c r="UC23"/>
+      <c r="UD23"/>
+      <c r="UE23"/>
+      <c r="UF23"/>
+      <c r="UG23"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>826.0</v>
       </c>
       <c r="B24" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -15610,13 +16590,48 @@
       <c r="SV24"/>
       <c r="SW24"/>
       <c r="SX24"/>
+      <c r="SY24"/>
+      <c r="SZ24"/>
+      <c r="TA24"/>
+      <c r="TB24"/>
+      <c r="TC24"/>
+      <c r="TD24"/>
+      <c r="TE24"/>
+      <c r="TF24"/>
+      <c r="TG24"/>
+      <c r="TH24"/>
+      <c r="TI24"/>
+      <c r="TJ24"/>
+      <c r="TK24"/>
+      <c r="TL24"/>
+      <c r="TM24"/>
+      <c r="TN24"/>
+      <c r="TO24"/>
+      <c r="TP24"/>
+      <c r="TQ24"/>
+      <c r="TR24"/>
+      <c r="TS24"/>
+      <c r="TT24"/>
+      <c r="TU24"/>
+      <c r="TV24"/>
+      <c r="TW24"/>
+      <c r="TX24"/>
+      <c r="TY24"/>
+      <c r="TZ24"/>
+      <c r="UA24"/>
+      <c r="UB24"/>
+      <c r="UC24"/>
+      <c r="UD24"/>
+      <c r="UE24"/>
+      <c r="UF24"/>
+      <c r="UG24"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>840.0</v>
       </c>
       <c r="B25" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -16146,6 +17161,41 @@
       <c r="SV25"/>
       <c r="SW25"/>
       <c r="SX25"/>
+      <c r="SY25"/>
+      <c r="SZ25"/>
+      <c r="TA25"/>
+      <c r="TB25"/>
+      <c r="TC25"/>
+      <c r="TD25"/>
+      <c r="TE25"/>
+      <c r="TF25"/>
+      <c r="TG25"/>
+      <c r="TH25"/>
+      <c r="TI25"/>
+      <c r="TJ25"/>
+      <c r="TK25"/>
+      <c r="TL25"/>
+      <c r="TM25"/>
+      <c r="TN25"/>
+      <c r="TO25"/>
+      <c r="TP25"/>
+      <c r="TQ25"/>
+      <c r="TR25"/>
+      <c r="TS25"/>
+      <c r="TT25"/>
+      <c r="TU25"/>
+      <c r="TV25"/>
+      <c r="TW25"/>
+      <c r="TX25"/>
+      <c r="TY25"/>
+      <c r="TZ25"/>
+      <c r="UA25"/>
+      <c r="UB25"/>
+      <c r="UC25"/>
+      <c r="UD25"/>
+      <c r="UE25"/>
+      <c r="UF25"/>
+      <c r="UG25"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -16165,13 +17215,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>542</v>
+        <v>577</v>
       </c>
       <c r="C1" t="s">
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="D1" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2">
@@ -16179,7 +17229,7 @@
         <v>32.0</v>
       </c>
       <c r="B2" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="C2" t="n">
         <v>1950.0</v>
@@ -16193,7 +17243,7 @@
         <v>36.0</v>
       </c>
       <c r="B3" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C3" t="n">
         <v>1950.0</v>
@@ -16207,7 +17257,7 @@
         <v>76.0</v>
       </c>
       <c r="B4" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="C4" t="n">
         <v>1950.0</v>
@@ -16221,7 +17271,7 @@
         <v>124.0</v>
       </c>
       <c r="B5" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="C5" t="n">
         <v>1950.0</v>
@@ -16235,7 +17285,7 @@
         <v>156.0</v>
       </c>
       <c r="B6" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="C6" t="n">
         <v>1950.0</v>
@@ -16249,7 +17299,7 @@
         <v>818.0</v>
       </c>
       <c r="B7" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="C7" t="n">
         <v>1950.0</v>
@@ -16263,7 +17313,7 @@
         <v>250.0</v>
       </c>
       <c r="B8" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="C8" t="n">
         <v>1950.0</v>
@@ -16277,7 +17327,7 @@
         <v>276.0</v>
       </c>
       <c r="B9" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="C9" t="n">
         <v>1950.0</v>
@@ -16291,7 +17341,7 @@
         <v>356.0</v>
       </c>
       <c r="B10" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="C10" t="n">
         <v>1950.0</v>
@@ -16305,7 +17355,7 @@
         <v>360.0</v>
       </c>
       <c r="B11" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="C11" t="n">
         <v>1950.0</v>
@@ -16319,7 +17369,7 @@
         <v>380.0</v>
       </c>
       <c r="B12" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="C12" t="n">
         <v>1950.0</v>
@@ -16333,7 +17383,7 @@
         <v>392.0</v>
       </c>
       <c r="B13" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C13" t="n">
         <v>1950.0</v>
@@ -16347,7 +17397,7 @@
         <v>404.0</v>
       </c>
       <c r="B14" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="C14" t="n">
         <v>1950.0</v>
@@ -16361,7 +17411,7 @@
         <v>484.0</v>
       </c>
       <c r="B15" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="C15" t="n">
         <v>1950.0</v>
@@ -16375,7 +17425,7 @@
         <v>528.0</v>
       </c>
       <c r="B16" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="C16" t="n">
         <v>1950.0</v>
@@ -16389,7 +17439,7 @@
         <v>616.0</v>
       </c>
       <c r="B17" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="C17" t="n">
         <v>1950.0</v>
@@ -16403,7 +17453,7 @@
         <v>710.0</v>
       </c>
       <c r="B18" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="C18" t="n">
         <v>1950.0</v>
@@ -16417,7 +17467,7 @@
         <v>724.0</v>
       </c>
       <c r="B19" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="C19" t="n">
         <v>1950.0</v>
@@ -16431,7 +17481,7 @@
         <v>752.0</v>
       </c>
       <c r="B20" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="C20" t="n">
         <v>1950.0</v>
@@ -16445,7 +17495,7 @@
         <v>764.0</v>
       </c>
       <c r="B21" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="C21" t="n">
         <v>1950.0</v>
@@ -16459,7 +17509,7 @@
         <v>792.0</v>
       </c>
       <c r="B22" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="C22" t="n">
         <v>1950.0</v>
@@ -16473,7 +17523,7 @@
         <v>826.0</v>
       </c>
       <c r="B23" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="C23" t="n">
         <v>1950.0</v>
@@ -16487,7 +17537,7 @@
         <v>840.0</v>
       </c>
       <c r="B24" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="C24" t="n">
         <v>1950.0</v>
@@ -16501,7 +17551,7 @@
         <v>32.0</v>
       </c>
       <c r="B25" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="C25" t="n">
         <v>1960.0</v>
@@ -16515,7 +17565,7 @@
         <v>36.0</v>
       </c>
       <c r="B26" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C26" t="n">
         <v>1960.0</v>
@@ -16529,7 +17579,7 @@
         <v>76.0</v>
       </c>
       <c r="B27" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="C27" t="n">
         <v>1960.0</v>
@@ -16543,7 +17593,7 @@
         <v>124.0</v>
       </c>
       <c r="B28" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="C28" t="n">
         <v>1960.0</v>
@@ -16557,7 +17607,7 @@
         <v>156.0</v>
       </c>
       <c r="B29" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="C29" t="n">
         <v>1960.0</v>
@@ -16571,7 +17621,7 @@
         <v>818.0</v>
       </c>
       <c r="B30" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="C30" t="n">
         <v>1960.0</v>
@@ -16585,7 +17635,7 @@
         <v>250.0</v>
       </c>
       <c r="B31" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="C31" t="n">
         <v>1960.0</v>
@@ -16599,7 +17649,7 @@
         <v>276.0</v>
       </c>
       <c r="B32" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="C32" t="n">
         <v>1960.0</v>
@@ -16613,7 +17663,7 @@
         <v>356.0</v>
       </c>
       <c r="B33" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="C33" t="n">
         <v>1960.0</v>
@@ -16627,7 +17677,7 @@
         <v>360.0</v>
       </c>
       <c r="B34" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="C34" t="n">
         <v>1960.0</v>
@@ -16641,7 +17691,7 @@
         <v>380.0</v>
       </c>
       <c r="B35" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="C35" t="n">
         <v>1960.0</v>
@@ -16655,7 +17705,7 @@
         <v>392.0</v>
       </c>
       <c r="B36" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C36" t="n">
         <v>1960.0</v>
@@ -16669,7 +17719,7 @@
         <v>404.0</v>
       </c>
       <c r="B37" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="C37" t="n">
         <v>1960.0</v>
@@ -16683,7 +17733,7 @@
         <v>484.0</v>
       </c>
       <c r="B38" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="C38" t="n">
         <v>1960.0</v>
@@ -16697,7 +17747,7 @@
         <v>528.0</v>
       </c>
       <c r="B39" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="C39" t="n">
         <v>1960.0</v>
@@ -16711,7 +17761,7 @@
         <v>616.0</v>
       </c>
       <c r="B40" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="C40" t="n">
         <v>1960.0</v>
@@ -16725,7 +17775,7 @@
         <v>710.0</v>
       </c>
       <c r="B41" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="C41" t="n">
         <v>1960.0</v>
@@ -16739,7 +17789,7 @@
         <v>724.0</v>
       </c>
       <c r="B42" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="C42" t="n">
         <v>1960.0</v>
@@ -16753,7 +17803,7 @@
         <v>752.0</v>
       </c>
       <c r="B43" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="C43" t="n">
         <v>1960.0</v>
@@ -16767,7 +17817,7 @@
         <v>764.0</v>
       </c>
       <c r="B44" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="C44" t="n">
         <v>1960.0</v>
@@ -16781,7 +17831,7 @@
         <v>792.0</v>
       </c>
       <c r="B45" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="C45" t="n">
         <v>1960.0</v>
@@ -16795,7 +17845,7 @@
         <v>826.0</v>
       </c>
       <c r="B46" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="C46" t="n">
         <v>1960.0</v>
@@ -16809,7 +17859,7 @@
         <v>840.0</v>
       </c>
       <c r="B47" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="C47" t="n">
         <v>1960.0</v>
@@ -16823,7 +17873,7 @@
         <v>32.0</v>
       </c>
       <c r="B48" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="C48" t="n">
         <v>1970.0</v>
@@ -16837,7 +17887,7 @@
         <v>36.0</v>
       </c>
       <c r="B49" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C49" t="n">
         <v>1970.0</v>
@@ -16851,7 +17901,7 @@
         <v>76.0</v>
       </c>
       <c r="B50" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="C50" t="n">
         <v>1970.0</v>
@@ -16865,7 +17915,7 @@
         <v>124.0</v>
       </c>
       <c r="B51" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="C51" t="n">
         <v>1970.0</v>
@@ -16879,7 +17929,7 @@
         <v>156.0</v>
       </c>
       <c r="B52" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="C52" t="n">
         <v>1970.0</v>
@@ -16893,7 +17943,7 @@
         <v>818.0</v>
       </c>
       <c r="B53" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="C53" t="n">
         <v>1970.0</v>
@@ -16907,7 +17957,7 @@
         <v>250.0</v>
       </c>
       <c r="B54" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="C54" t="n">
         <v>1970.0</v>
@@ -16921,7 +17971,7 @@
         <v>276.0</v>
       </c>
       <c r="B55" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="C55" t="n">
         <v>1970.0</v>
@@ -16935,7 +17985,7 @@
         <v>356.0</v>
       </c>
       <c r="B56" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="C56" t="n">
         <v>1970.0</v>
@@ -16949,7 +17999,7 @@
         <v>360.0</v>
       </c>
       <c r="B57" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="C57" t="n">
         <v>1970.0</v>
@@ -16963,7 +18013,7 @@
         <v>380.0</v>
       </c>
       <c r="B58" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="C58" t="n">
         <v>1970.0</v>
@@ -16977,7 +18027,7 @@
         <v>392.0</v>
       </c>
       <c r="B59" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C59" t="n">
         <v>1970.0</v>
@@ -16991,7 +18041,7 @@
         <v>404.0</v>
       </c>
       <c r="B60" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="C60" t="n">
         <v>1970.0</v>
@@ -17005,7 +18055,7 @@
         <v>484.0</v>
       </c>
       <c r="B61" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="C61" t="n">
         <v>1970.0</v>
@@ -17019,7 +18069,7 @@
         <v>528.0</v>
       </c>
       <c r="B62" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="C62" t="n">
         <v>1970.0</v>
@@ -17033,7 +18083,7 @@
         <v>616.0</v>
       </c>
       <c r="B63" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="C63" t="n">
         <v>1970.0</v>
@@ -17047,7 +18097,7 @@
         <v>710.0</v>
       </c>
       <c r="B64" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="C64" t="n">
         <v>1970.0</v>
@@ -17061,7 +18111,7 @@
         <v>724.0</v>
       </c>
       <c r="B65" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="C65" t="n">
         <v>1970.0</v>
@@ -17075,7 +18125,7 @@
         <v>752.0</v>
       </c>
       <c r="B66" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="C66" t="n">
         <v>1970.0</v>
@@ -17089,7 +18139,7 @@
         <v>764.0</v>
       </c>
       <c r="B67" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="C67" t="n">
         <v>1970.0</v>
@@ -17103,7 +18153,7 @@
         <v>792.0</v>
       </c>
       <c r="B68" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="C68" t="n">
         <v>1970.0</v>
@@ -17117,7 +18167,7 @@
         <v>826.0</v>
       </c>
       <c r="B69" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="C69" t="n">
         <v>1970.0</v>
@@ -17131,7 +18181,7 @@
         <v>840.0</v>
       </c>
       <c r="B70" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="C70" t="n">
         <v>1970.0</v>
@@ -17145,7 +18195,7 @@
         <v>32.0</v>
       </c>
       <c r="B71" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="C71" t="n">
         <v>1980.0</v>
@@ -17159,7 +18209,7 @@
         <v>36.0</v>
       </c>
       <c r="B72" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C72" t="n">
         <v>1980.0</v>
@@ -17173,7 +18223,7 @@
         <v>76.0</v>
       </c>
       <c r="B73" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="C73" t="n">
         <v>1980.0</v>
@@ -17187,7 +18237,7 @@
         <v>124.0</v>
       </c>
       <c r="B74" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="C74" t="n">
         <v>1980.0</v>
@@ -17201,7 +18251,7 @@
         <v>156.0</v>
       </c>
       <c r="B75" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="C75" t="n">
         <v>1980.0</v>
@@ -17215,7 +18265,7 @@
         <v>818.0</v>
       </c>
       <c r="B76" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="C76" t="n">
         <v>1980.0</v>
@@ -17229,7 +18279,7 @@
         <v>250.0</v>
       </c>
       <c r="B77" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="C77" t="n">
         <v>1980.0</v>
@@ -17243,7 +18293,7 @@
         <v>276.0</v>
       </c>
       <c r="B78" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="C78" t="n">
         <v>1980.0</v>
@@ -17257,7 +18307,7 @@
         <v>356.0</v>
       </c>
       <c r="B79" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="C79" t="n">
         <v>1980.0</v>
@@ -17271,7 +18321,7 @@
         <v>360.0</v>
       </c>
       <c r="B80" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="C80" t="n">
         <v>1980.0</v>
@@ -17285,7 +18335,7 @@
         <v>380.0</v>
       </c>
       <c r="B81" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="C81" t="n">
         <v>1980.0</v>
@@ -17299,7 +18349,7 @@
         <v>392.0</v>
       </c>
       <c r="B82" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C82" t="n">
         <v>1980.0</v>
@@ -17313,7 +18363,7 @@
         <v>404.0</v>
       </c>
       <c r="B83" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="C83" t="n">
         <v>1980.0</v>
@@ -17327,7 +18377,7 @@
         <v>484.0</v>
       </c>
       <c r="B84" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="C84" t="n">
         <v>1980.0</v>
@@ -17341,7 +18391,7 @@
         <v>528.0</v>
       </c>
       <c r="B85" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="C85" t="n">
         <v>1980.0</v>
@@ -17355,7 +18405,7 @@
         <v>616.0</v>
       </c>
       <c r="B86" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="C86" t="n">
         <v>1980.0</v>
@@ -17369,7 +18419,7 @@
         <v>710.0</v>
       </c>
       <c r="B87" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="C87" t="n">
         <v>1980.0</v>
@@ -17383,7 +18433,7 @@
         <v>724.0</v>
       </c>
       <c r="B88" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="C88" t="n">
         <v>1980.0</v>
@@ -17397,7 +18447,7 @@
         <v>752.0</v>
       </c>
       <c r="B89" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="C89" t="n">
         <v>1980.0</v>
@@ -17411,7 +18461,7 @@
         <v>764.0</v>
       </c>
       <c r="B90" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="C90" t="n">
         <v>1980.0</v>
@@ -17425,7 +18475,7 @@
         <v>792.0</v>
       </c>
       <c r="B91" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="C91" t="n">
         <v>1980.0</v>
@@ -17439,7 +18489,7 @@
         <v>826.0</v>
       </c>
       <c r="B92" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="C92" t="n">
         <v>1980.0</v>
@@ -17453,7 +18503,7 @@
         <v>840.0</v>
       </c>
       <c r="B93" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="C93" t="n">
         <v>1980.0</v>
@@ -17467,7 +18517,7 @@
         <v>32.0</v>
       </c>
       <c r="B94" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="C94" t="n">
         <v>1990.0</v>
@@ -17481,7 +18531,7 @@
         <v>36.0</v>
       </c>
       <c r="B95" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C95" t="n">
         <v>1990.0</v>
@@ -17495,7 +18545,7 @@
         <v>76.0</v>
       </c>
       <c r="B96" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="C96" t="n">
         <v>1990.0</v>
@@ -17509,7 +18559,7 @@
         <v>124.0</v>
       </c>
       <c r="B97" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="C97" t="n">
         <v>1990.0</v>
@@ -17523,7 +18573,7 @@
         <v>156.0</v>
       </c>
       <c r="B98" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="C98" t="n">
         <v>1990.0</v>
@@ -17537,7 +18587,7 @@
         <v>818.0</v>
       </c>
       <c r="B99" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="C99" t="n">
         <v>1990.0</v>
@@ -17551,7 +18601,7 @@
         <v>250.0</v>
       </c>
       <c r="B100" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="C100" t="n">
         <v>1990.0</v>
@@ -17565,7 +18615,7 @@
         <v>276.0</v>
       </c>
       <c r="B101" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="C101" t="n">
         <v>1990.0</v>
@@ -17579,7 +18629,7 @@
         <v>356.0</v>
       </c>
       <c r="B102" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="C102" t="n">
         <v>1990.0</v>
@@ -17593,7 +18643,7 @@
         <v>360.0</v>
       </c>
       <c r="B103" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="C103" t="n">
         <v>1990.0</v>
@@ -17607,7 +18657,7 @@
         <v>380.0</v>
       </c>
       <c r="B104" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="C104" t="n">
         <v>1990.0</v>
@@ -17621,7 +18671,7 @@
         <v>392.0</v>
       </c>
       <c r="B105" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C105" t="n">
         <v>1990.0</v>
@@ -17635,7 +18685,7 @@
         <v>404.0</v>
       </c>
       <c r="B106" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="C106" t="n">
         <v>1990.0</v>
@@ -17649,7 +18699,7 @@
         <v>484.0</v>
       </c>
       <c r="B107" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="C107" t="n">
         <v>1990.0</v>
@@ -17663,7 +18713,7 @@
         <v>528.0</v>
       </c>
       <c r="B108" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="C108" t="n">
         <v>1990.0</v>
@@ -17677,7 +18727,7 @@
         <v>616.0</v>
       </c>
       <c r="B109" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="C109" t="n">
         <v>1990.0</v>
@@ -17691,7 +18741,7 @@
         <v>643.0</v>
       </c>
       <c r="B110" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
       <c r="C110" t="n">
         <v>1990.0</v>
@@ -17705,7 +18755,7 @@
         <v>710.0</v>
       </c>
       <c r="B111" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="C111" t="n">
         <v>1990.0</v>
@@ -17719,7 +18769,7 @@
         <v>724.0</v>
       </c>
       <c r="B112" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="C112" t="n">
         <v>1990.0</v>
@@ -17733,7 +18783,7 @@
         <v>752.0</v>
       </c>
       <c r="B113" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="C113" t="n">
         <v>1990.0</v>
@@ -17747,7 +18797,7 @@
         <v>764.0</v>
       </c>
       <c r="B114" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="C114" t="n">
         <v>1990.0</v>
@@ -17761,7 +18811,7 @@
         <v>792.0</v>
       </c>
       <c r="B115" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="C115" t="n">
         <v>1990.0</v>
@@ -17775,7 +18825,7 @@
         <v>826.0</v>
       </c>
       <c r="B116" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="C116" t="n">
         <v>1990.0</v>
@@ -17789,7 +18839,7 @@
         <v>840.0</v>
       </c>
       <c r="B117" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="C117" t="n">
         <v>1990.0</v>
@@ -17803,7 +18853,7 @@
         <v>32.0</v>
       </c>
       <c r="B118" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="C118" t="n">
         <v>2000.0</v>
@@ -17817,7 +18867,7 @@
         <v>36.0</v>
       </c>
       <c r="B119" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C119" t="n">
         <v>2000.0</v>
@@ -17831,7 +18881,7 @@
         <v>76.0</v>
       </c>
       <c r="B120" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="C120" t="n">
         <v>2000.0</v>
@@ -17845,7 +18895,7 @@
         <v>124.0</v>
       </c>
       <c r="B121" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="C121" t="n">
         <v>2000.0</v>
@@ -17859,7 +18909,7 @@
         <v>156.0</v>
       </c>
       <c r="B122" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="C122" t="n">
         <v>2000.0</v>
@@ -17873,7 +18923,7 @@
         <v>818.0</v>
       </c>
       <c r="B123" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="C123" t="n">
         <v>2000.0</v>
@@ -17887,7 +18937,7 @@
         <v>250.0</v>
       </c>
       <c r="B124" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="C124" t="n">
         <v>2000.0</v>
@@ -17901,7 +18951,7 @@
         <v>276.0</v>
       </c>
       <c r="B125" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="C125" t="n">
         <v>2000.0</v>
@@ -17915,7 +18965,7 @@
         <v>356.0</v>
       </c>
       <c r="B126" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="C126" t="n">
         <v>2000.0</v>
@@ -17929,7 +18979,7 @@
         <v>360.0</v>
       </c>
       <c r="B127" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="C127" t="n">
         <v>2000.0</v>
@@ -17943,7 +18993,7 @@
         <v>380.0</v>
       </c>
       <c r="B128" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="C128" t="n">
         <v>2000.0</v>
@@ -17957,7 +19007,7 @@
         <v>392.0</v>
       </c>
       <c r="B129" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C129" t="n">
         <v>2000.0</v>
@@ -17971,7 +19021,7 @@
         <v>404.0</v>
       </c>
       <c r="B130" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="C130" t="n">
         <v>2000.0</v>
@@ -17985,7 +19035,7 @@
         <v>484.0</v>
       </c>
       <c r="B131" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="C131" t="n">
         <v>2000.0</v>
@@ -17999,7 +19049,7 @@
         <v>528.0</v>
       </c>
       <c r="B132" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="C132" t="n">
         <v>2000.0</v>
@@ -18013,7 +19063,7 @@
         <v>616.0</v>
       </c>
       <c r="B133" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="C133" t="n">
         <v>2000.0</v>
@@ -18027,7 +19077,7 @@
         <v>643.0</v>
       </c>
       <c r="B134" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
       <c r="C134" t="n">
         <v>2000.0</v>
@@ -18041,7 +19091,7 @@
         <v>710.0</v>
       </c>
       <c r="B135" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="C135" t="n">
         <v>2000.0</v>
@@ -18055,7 +19105,7 @@
         <v>724.0</v>
       </c>
       <c r="B136" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="C136" t="n">
         <v>2000.0</v>
@@ -18069,7 +19119,7 @@
         <v>752.0</v>
       </c>
       <c r="B137" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="C137" t="n">
         <v>2000.0</v>
@@ -18083,7 +19133,7 @@
         <v>764.0</v>
       </c>
       <c r="B138" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="C138" t="n">
         <v>2000.0</v>
@@ -18097,7 +19147,7 @@
         <v>792.0</v>
       </c>
       <c r="B139" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="C139" t="n">
         <v>2000.0</v>
@@ -18111,7 +19161,7 @@
         <v>826.0</v>
       </c>
       <c r="B140" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="C140" t="n">
         <v>2000.0</v>
@@ -18125,7 +19175,7 @@
         <v>840.0</v>
       </c>
       <c r="B141" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="C141" t="n">
         <v>2000.0</v>
@@ -18149,50 +19199,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>545</v>
+        <v>580</v>
       </c>
       <c r="B1" t="s">
-        <v>546</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>547</v>
+        <v>582</v>
       </c>
       <c r="B2" t="s">
-        <v>552</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>548</v>
+        <v>583</v>
       </c>
       <c r="B3" t="s">
-        <v>553</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>549</v>
+        <v>584</v>
       </c>
       <c r="B4" t="s">
-        <v>554</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>550</v>
+        <v>585</v>
       </c>
       <c r="B5" t="s">
-        <v>555</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>551</v>
+        <v>586</v>
       </c>
       <c r="B6" t="s">
-        <v>556</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
